--- a/stats/harvard/disease_type=all failure-type-ignored=no-disease-found for app=Avey.xlsx
+++ b/stats/harvard/disease_type=all failure-type-ignored=no-disease-found for app=Avey.xlsx
@@ -766,124 +766,124 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.23</v>
+        <v>0.291</v>
       </c>
       <c r="C4" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13</v>
+        <v>0.223</v>
       </c>
       <c r="E4" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R4" t="n">
         <v>0.225</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.189</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.213</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.289</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.244</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.19</v>
-      </c>
       <c r="S4" t="n">
-        <v>0.436</v>
+        <v>0.474</v>
       </c>
       <c r="T4" t="n">
-        <v>0.325</v>
+        <v>0.254</v>
       </c>
       <c r="U4" t="n">
-        <v>0.151</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="V4" t="n">
-        <v>0.388</v>
+        <v>0.296</v>
       </c>
       <c r="W4" t="n">
-        <v>0.304</v>
+        <v>0.239</v>
       </c>
       <c r="X4" t="n">
-        <v>0.004</v>
+        <v>0.046</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.065</v>
+        <v>0.214</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.553</v>
+        <v>0.446</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.164</v>
+        <v>0.14</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.406</v>
+        <v>0.374</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.171</v>
+        <v>0.12</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.023</v>
+        <v>0.007</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.15</v>
+        <v>0.082</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.095</v>
+        <v>1.958</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.122</v>
+        <v>0.109</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.21</v>
+        <v>0.172</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.458</v>
+        <v>0.415</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.703</v>
+        <v>0.643</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.095</v>
+        <v>0.124</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.309</v>
+        <v>0.352</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.698</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="5">
@@ -893,124 +893,124 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="AL5" t="n">
         <v>0.9</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.539</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9429999999999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.663</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.539</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.447</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1</v>
-      </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.9</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="6">
@@ -1020,72 +1020,72 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.366</v>
+        <v>0.427</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.374</v>
+        <v>0.292</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.351</v>
+        <v>0.332</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>0.451</v>
+        <v>0.428</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.661</v>
+        <v>0.387</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0.646</v>
+        <v>0.524</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.444</v>
+        <v>0.342</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0.466</v>
+        <v>0.359</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.573</v>
       </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0.296</v>
+        <v>0.206</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>2.344</v>
+        <v>2.231</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="n">
-        <v>0.7</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>0.826</v>
+        <v>0.75</v>
       </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>0.781</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="7">
@@ -1095,72 +1095,72 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.569</v>
+        <v>0.593</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.619</v>
+        <v>0.455</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.575</v>
+        <v>0.518</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>0.574</v>
+        <v>0.528</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.968</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0.677</v>
+        <v>0.539</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>0.569</v>
+        <v>0.433</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.515</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0.527</v>
+        <v>0.361</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>2.54</v>
+        <v>2.437</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="n">
-        <v>0.7</v>
+        <v>0.721</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>0.922</v>
+        <v>0.833</v>
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>0.847</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1170,124 +1170,124 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.769</v>
+        <v>0.741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.193</v>
+        <v>0.162</v>
       </c>
       <c r="D8" t="n">
-        <v>0.439</v>
+        <v>0.402</v>
       </c>
       <c r="E8" t="n">
-        <v>0.751</v>
+        <v>0.608</v>
       </c>
       <c r="F8" t="n">
-        <v>0.303</v>
+        <v>0.178</v>
       </c>
       <c r="G8" t="n">
-        <v>0.55</v>
+        <v>0.422</v>
       </c>
       <c r="H8" t="n">
-        <v>0.852</v>
+        <v>0.718</v>
       </c>
       <c r="I8" t="n">
-        <v>0.054</v>
+        <v>0.149</v>
       </c>
       <c r="J8" t="n">
-        <v>0.233</v>
+        <v>0.386</v>
       </c>
       <c r="K8" t="n">
-        <v>0.55</v>
+        <v>0.547</v>
       </c>
       <c r="L8" t="n">
-        <v>0.172</v>
+        <v>0.205</v>
       </c>
       <c r="M8" t="n">
-        <v>0.415</v>
+        <v>0.453</v>
       </c>
       <c r="N8" t="n">
-        <v>1.239</v>
+        <v>0.727</v>
       </c>
       <c r="O8" t="n">
-        <v>0.15</v>
+        <v>0.157</v>
       </c>
       <c r="P8" t="n">
-        <v>0.388</v>
+        <v>0.396</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.626</v>
+        <v>0.532</v>
       </c>
       <c r="R8" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="X8" t="n">
         <v>0.188</v>
       </c>
-      <c r="S8" t="n">
+      <c r="Y8" t="n">
         <v>0.433</v>
       </c>
-      <c r="T8" t="n">
-        <v>0.613</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.789</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.216</v>
-      </c>
       <c r="Z8" t="n">
-        <v>0.8</v>
+        <v>0.729</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.21</v>
+        <v>0.156</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.458</v>
+        <v>0.395</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.728</v>
+        <v>0.604</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.285</v>
+        <v>0.187</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.534</v>
+        <v>0.432</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.502</v>
+        <v>2.486</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.103</v>
+        <v>0.064</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.321</v>
+        <v>0.253</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.21</v>
+        <v>0.188</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.458</v>
+        <v>0.433</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.963</v>
+        <v>0.863</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.012</v>
+        <v>0.095</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.111</v>
+        <v>0.308</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.834</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="9">
@@ -1297,49 +1297,49 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.6</v>
       </c>
-      <c r="C9" t="n">
+      <c r="I9" t="n">
         <v>0.24</v>
       </c>
-      <c r="D9" t="n">
+      <c r="J9" t="n">
         <v>0.49</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.458</v>
-      </c>
       <c r="K9" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="L9" t="n">
-        <v>0.24</v>
+        <v>0.248</v>
       </c>
       <c r="M9" t="n">
-        <v>0.49</v>
+        <v>0.497</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.234</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.484</v>
       </c>
       <c r="Q9" t="n">
         <v>0.5</v>
@@ -1351,70 +1351,70 @@
         <v>0.5</v>
       </c>
       <c r="T9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="AC9" t="n">
         <v>0.5</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AD9" t="n">
         <v>0.25</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AE9" t="n">
         <v>0.5</v>
       </c>
-      <c r="W9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AF9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AN9" t="n">
         <v>0.4</v>
       </c>
-      <c r="AD9" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0.3</v>
-      </c>
       <c r="AO9" t="n">
-        <v>0.733</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="10">
@@ -1424,76 +1424,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C10" t="n">
-        <v>0.16</v>
+        <v>0.188</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4</v>
+        <v>0.433</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="F10" t="n">
-        <v>0.21</v>
+        <v>0.227</v>
       </c>
       <c r="G10" t="n">
-        <v>0.458</v>
+        <v>0.477</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09</v>
+        <v>0.188</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3</v>
+        <v>0.433</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
       <c r="L10" t="n">
-        <v>0.21</v>
+        <v>0.234</v>
       </c>
       <c r="M10" t="n">
-        <v>0.458</v>
+        <v>0.484</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0.775</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.174</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.418</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="R10" t="n">
-        <v>0.21</v>
+        <v>0.248</v>
       </c>
       <c r="S10" t="n">
-        <v>0.458</v>
+        <v>0.497</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5</v>
+        <v>0.525</v>
       </c>
       <c r="U10" t="n">
-        <v>0.25</v>
+        <v>0.249</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5</v>
+        <v>0.499</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0.725</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.199</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.447</v>
       </c>
       <c r="Z10" t="n">
         <v>0.8</v>
@@ -1517,28 +1517,28 @@
         <v>2.6</v>
       </c>
       <c r="AG10" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AM10" t="n">
         <v>0.09</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AN10" t="n">
         <v>0.3</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
       </c>
       <c r="AO10" t="n">
         <v>0.867</v>
@@ -1560,67 +1560,67 @@
         <v>0.4</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7</v>
+        <v>0.725</v>
       </c>
       <c r="F11" t="n">
-        <v>0.21</v>
+        <v>0.199</v>
       </c>
       <c r="G11" t="n">
-        <v>0.458</v>
+        <v>0.447</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.144</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
       <c r="L11" t="n">
-        <v>0.21</v>
+        <v>0.234</v>
       </c>
       <c r="M11" t="n">
-        <v>0.458</v>
+        <v>0.484</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="R11" t="n">
-        <v>0.21</v>
+        <v>0.248</v>
       </c>
       <c r="S11" t="n">
-        <v>0.458</v>
+        <v>0.497</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5</v>
+        <v>0.525</v>
       </c>
       <c r="U11" t="n">
-        <v>0.25</v>
+        <v>0.249</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5</v>
+        <v>0.499</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0.725</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.199</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.447</v>
       </c>
       <c r="Z11" t="n">
         <v>0.8</v>
@@ -1632,40 +1632,40 @@
         <v>0.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.16</v>
+        <v>0.227</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.4</v>
+        <v>0.477</v>
       </c>
       <c r="AF11" t="n">
         <v>2.6</v>
       </c>
       <c r="AG11" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AM11" t="n">
         <v>0.09</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AN11" t="n">
         <v>0.3</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
       </c>
       <c r="AO11" t="n">
         <v>0.867</v>
@@ -1678,103 +1678,103 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.25</v>
+        <v>1.312</v>
       </c>
       <c r="C12" t="n">
-        <v>0.188</v>
+        <v>0.652</v>
       </c>
       <c r="D12" t="n">
-        <v>0.433</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>1.571</v>
+        <v>1.655</v>
       </c>
       <c r="F12" t="n">
-        <v>0.531</v>
+        <v>1.054</v>
       </c>
       <c r="G12" t="n">
-        <v>0.728</v>
+        <v>1.026</v>
       </c>
       <c r="H12" t="n">
-        <v>1.7</v>
+        <v>1.576</v>
       </c>
       <c r="I12" t="n">
-        <v>1.61</v>
+        <v>1.275</v>
       </c>
       <c r="J12" t="n">
-        <v>1.269</v>
+        <v>1.129</v>
       </c>
       <c r="K12" t="n">
-        <v>1.857</v>
+        <v>1.44</v>
       </c>
       <c r="L12" t="n">
-        <v>0.98</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>0.99</v>
+        <v>0.753</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>1.312</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.465</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.286</v>
+        <v>1.091</v>
       </c>
       <c r="R12" t="n">
-        <v>0.204</v>
+        <v>0.083</v>
       </c>
       <c r="S12" t="n">
-        <v>0.452</v>
+        <v>0.287</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>1.333</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.413</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>0.642</v>
       </c>
       <c r="W12" t="n">
-        <v>1.7</v>
+        <v>1.276</v>
       </c>
       <c r="X12" t="n">
-        <v>0.61</v>
+        <v>0.338</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.781</v>
+        <v>0.581</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.25</v>
+        <v>1.281</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.438</v>
+        <v>0.327</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.661</v>
+        <v>0.572</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.778</v>
+        <v>2.069</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.728</v>
+        <v>4.133</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.931</v>
+        <v>2.033</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.433</v>
+        <v>3.348</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.222</v>
+        <v>0.233</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.471</v>
+        <v>0.483</v>
       </c>
       <c r="AI12" t="n">
         <v>1</v>
@@ -1786,16 +1786,16 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.1</v>
+        <v>1.111</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.09</v>
+        <v>0.099</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.3</v>
+        <v>0.314</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.144</v>
+        <v>1.116</v>
       </c>
     </row>
     <row r="13">
@@ -1805,124 +1805,124 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.348</v>
       </c>
       <c r="D13" t="n">
-        <v>0.831</v>
+        <v>1.161</v>
       </c>
       <c r="E13" t="n">
-        <v>4.875</v>
+        <v>4.579</v>
       </c>
       <c r="F13" t="n">
-        <v>0.109</v>
+        <v>0.717</v>
       </c>
       <c r="G13" t="n">
-        <v>0.331</v>
+        <v>0.847</v>
       </c>
       <c r="H13" t="n">
+        <v>4.513</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.343</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.325</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.233</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.519</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4.189</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7.343</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.816</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6.154</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.899</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="AF13" t="n">
         <v>4.8</v>
       </c>
-      <c r="I13" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.663</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.375</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.234</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.333</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.9429999999999999</v>
-      </c>
-      <c r="W13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="X13" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.497</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.342</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1.676</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>4.6</v>
-      </c>
       <c r="AG13" t="n">
-        <v>1.01</v>
+        <v>0.849</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.005</v>
+        <v>0.922</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>1.325</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>0.369</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>0.608</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.49</v>
+        <v>0.838</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.221</v>
+        <v>0.915</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/stats/harvard/disease_type=all failure-type-ignored=no-disease-found for app=Avey.xlsx
+++ b/stats/harvard/disease_type=all failure-type-ignored=no-disease-found for app=Avey.xlsx
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.291</v>
+        <v>0.296</v>
       </c>
       <c r="C4" t="n">
         <v>0.05</v>
@@ -775,61 +775,61 @@
         <v>0.223</v>
       </c>
       <c r="E4" t="n">
-        <v>0.183</v>
+        <v>0.184</v>
       </c>
       <c r="F4" t="n">
         <v>0.028</v>
       </c>
       <c r="G4" t="n">
-        <v>0.169</v>
+        <v>0.167</v>
       </c>
       <c r="H4" t="n">
-        <v>0.208</v>
+        <v>0.209</v>
       </c>
       <c r="I4" t="n">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="J4" t="n">
-        <v>0.165</v>
+        <v>0.163</v>
       </c>
       <c r="K4" t="n">
-        <v>0.325</v>
+        <v>0.329</v>
       </c>
       <c r="L4" t="n">
-        <v>0.103</v>
+        <v>0.101</v>
       </c>
       <c r="M4" t="n">
-        <v>0.32</v>
+        <v>0.318</v>
       </c>
       <c r="N4" t="n">
-        <v>0.255</v>
+        <v>0.257</v>
       </c>
       <c r="O4" t="n">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="P4" t="n">
-        <v>0.151</v>
+        <v>0.149</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5</v>
+        <v>0.488</v>
       </c>
       <c r="R4" t="n">
         <v>0.225</v>
       </c>
       <c r="S4" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="T4" t="n">
-        <v>0.254</v>
+        <v>0.248</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="V4" t="n">
-        <v>0.296</v>
+        <v>0.295</v>
       </c>
       <c r="W4" t="n">
-        <v>0.239</v>
+        <v>0.233</v>
       </c>
       <c r="X4" t="n">
         <v>0.046</v>
@@ -838,25 +838,25 @@
         <v>0.214</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.14</v>
+        <v>0.137</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.374</v>
+        <v>0.369</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.12</v>
+        <v>0.121</v>
       </c>
       <c r="AD4" t="n">
         <v>0.007</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.082</v>
+        <v>0.081</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.958</v>
+        <v>0.697</v>
       </c>
       <c r="AG4" t="n">
         <v>0.109</v>
@@ -865,16 +865,16 @@
         <v>0.33</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.625</v>
+        <v>0.634</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.172</v>
+        <v>0.171</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.415</v>
+        <v>0.414</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.643</v>
+        <v>0.651</v>
       </c>
       <c r="AM4" t="n">
         <v>0.124</v>
@@ -883,7 +883,7 @@
         <v>0.352</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.653</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="5">
@@ -893,124 +893,124 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="C5" t="n">
-        <v>0.16</v>
+        <v>0.157</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0.396</v>
       </c>
       <c r="E5" t="n">
-        <v>0.725</v>
+        <v>0.732</v>
       </c>
       <c r="F5" t="n">
-        <v>0.199</v>
+        <v>0.196</v>
       </c>
       <c r="G5" t="n">
-        <v>0.447</v>
+        <v>0.443</v>
       </c>
       <c r="H5" t="n">
-        <v>0.825</v>
+        <v>0.829</v>
       </c>
       <c r="I5" t="n">
-        <v>0.144</v>
+        <v>0.142</v>
       </c>
       <c r="J5" t="n">
-        <v>0.38</v>
+        <v>0.376</v>
       </c>
       <c r="K5" t="n">
-        <v>0.625</v>
+        <v>0.634</v>
       </c>
       <c r="L5" t="n">
-        <v>0.234</v>
+        <v>0.232</v>
       </c>
       <c r="M5" t="n">
-        <v>0.484</v>
+        <v>0.482</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="O5" t="n">
-        <v>0.16</v>
+        <v>0.157</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4</v>
+        <v>0.396</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.55</v>
+        <v>0.537</v>
       </c>
       <c r="R5" t="n">
-        <v>0.248</v>
+        <v>0.249</v>
       </c>
       <c r="S5" t="n">
-        <v>0.497</v>
+        <v>0.499</v>
       </c>
       <c r="T5" t="n">
-        <v>0.525</v>
+        <v>0.512</v>
       </c>
       <c r="U5" t="n">
-        <v>0.249</v>
+        <v>0.25</v>
       </c>
       <c r="V5" t="n">
-        <v>0.499</v>
+        <v>0.5</v>
       </c>
       <c r="W5" t="n">
-        <v>0.725</v>
+        <v>0.707</v>
       </c>
       <c r="X5" t="n">
-        <v>0.199</v>
+        <v>0.207</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.447</v>
+        <v>0.455</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.16</v>
+        <v>0.157</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.4</v>
+        <v>0.396</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.725</v>
+        <v>0.732</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.199</v>
+        <v>0.196</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.447</v>
+        <v>0.443</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.6</v>
+        <v>0.951</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.218</v>
+        <v>0.215</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.75</v>
+        <v>0.756</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.188</v>
+        <v>0.184</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.433</v>
+        <v>0.429</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.9</v>
+        <v>0.902</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.09</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.3</v>
+        <v>0.297</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.867</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6">
@@ -1020,72 +1020,72 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.427</v>
+        <v>0.433</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.292</v>
+        <v>0.294</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.332</v>
+        <v>0.334</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>0.428</v>
+        <v>0.433</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.387</v>
+        <v>0.39</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0.524</v>
+        <v>0.511</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.342</v>
+        <v>0.334</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0.359</v>
+        <v>0.35</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>0.573</v>
+        <v>0.576</v>
       </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0.206</v>
+        <v>0.208</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>2.231</v>
+        <v>0.804</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>0.75</v>
+        <v>0.756</v>
       </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>0.744</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -1095,72 +1095,72 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.593</v>
+        <v>0.599</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.455</v>
+        <v>0.459</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.518</v>
+        <v>0.52</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>0.528</v>
+        <v>0.535</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0.539</v>
+        <v>0.526</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>0.433</v>
+        <v>0.422</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.515</v>
+        <v>0.503</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>2.437</v>
+        <v>0.886</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="n">
-        <v>0.721</v>
+        <v>0.728</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>0.833</v>
+        <v>0.837</v>
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1170,34 +1170,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.741</v>
+        <v>0.747</v>
       </c>
       <c r="C8" t="n">
-        <v>0.162</v>
+        <v>0.16</v>
       </c>
       <c r="D8" t="n">
-        <v>0.402</v>
+        <v>0.4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.608</v>
+        <v>0.617</v>
       </c>
       <c r="F8" t="n">
-        <v>0.178</v>
+        <v>0.177</v>
       </c>
       <c r="G8" t="n">
-        <v>0.422</v>
+        <v>0.421</v>
       </c>
       <c r="H8" t="n">
-        <v>0.718</v>
+        <v>0.725</v>
       </c>
       <c r="I8" t="n">
-        <v>0.149</v>
+        <v>0.147</v>
       </c>
       <c r="J8" t="n">
-        <v>0.386</v>
+        <v>0.383</v>
       </c>
       <c r="K8" t="n">
-        <v>0.547</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="L8" t="n">
         <v>0.205</v>
@@ -1206,25 +1206,25 @@
         <v>0.453</v>
       </c>
       <c r="N8" t="n">
-        <v>0.727</v>
+        <v>0.734</v>
       </c>
       <c r="O8" t="n">
-        <v>0.157</v>
+        <v>0.155</v>
       </c>
       <c r="P8" t="n">
-        <v>0.396</v>
+        <v>0.394</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.532</v>
+        <v>0.519</v>
       </c>
       <c r="R8" t="n">
-        <v>0.237</v>
+        <v>0.238</v>
       </c>
       <c r="S8" t="n">
-        <v>0.487</v>
+        <v>0.488</v>
       </c>
       <c r="T8" t="n">
-        <v>0.472</v>
+        <v>0.461</v>
       </c>
       <c r="U8" t="n">
         <v>0.219</v>
@@ -1233,61 +1233,61 @@
         <v>0.468</v>
       </c>
       <c r="W8" t="n">
-        <v>0.663</v>
+        <v>0.647</v>
       </c>
       <c r="X8" t="n">
-        <v>0.188</v>
+        <v>0.194</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.433</v>
+        <v>0.44</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.729</v>
+        <v>0.735</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.156</v>
+        <v>0.154</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.395</v>
+        <v>0.392</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.604</v>
+        <v>0.614</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.187</v>
+        <v>0.186</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.486</v>
+        <v>0.876</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.064</v>
+        <v>0.063</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.253</v>
+        <v>0.251</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.75</v>
+        <v>0.756</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.188</v>
+        <v>0.184</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.433</v>
+        <v>0.429</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.863</v>
+        <v>0.866</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.095</v>
+        <v>0.093</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.308</v>
+        <v>0.305</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.829</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="9">
@@ -1297,52 +1297,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.675</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.219</v>
+        <v>0.217</v>
       </c>
       <c r="D9" t="n">
-        <v>0.468</v>
+        <v>0.465</v>
       </c>
       <c r="E9" t="n">
-        <v>0.475</v>
+        <v>0.488</v>
       </c>
       <c r="F9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.249</v>
       </c>
-      <c r="G9" t="n">
+      <c r="M9" t="n">
         <v>0.499</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.497</v>
-      </c>
       <c r="N9" t="n">
-        <v>0.625</v>
+        <v>0.634</v>
       </c>
       <c r="O9" t="n">
-        <v>0.234</v>
+        <v>0.232</v>
       </c>
       <c r="P9" t="n">
-        <v>0.484</v>
+        <v>0.482</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5</v>
+        <v>0.488</v>
       </c>
       <c r="R9" t="n">
         <v>0.25</v>
@@ -1351,34 +1351,34 @@
         <v>0.5</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="U9" t="n">
-        <v>0.24</v>
+        <v>0.238</v>
       </c>
       <c r="V9" t="n">
-        <v>0.49</v>
+        <v>0.488</v>
       </c>
       <c r="W9" t="n">
-        <v>0.575</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="X9" t="n">
-        <v>0.244</v>
+        <v>0.246</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.494</v>
+        <v>0.496</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.625</v>
+        <v>0.634</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.234</v>
+        <v>0.232</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.484</v>
+        <v>0.482</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.5</v>
+        <v>0.512</v>
       </c>
       <c r="AD9" t="n">
         <v>0.25</v>
@@ -1387,34 +1387,34 @@
         <v>0.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.3</v>
+        <v>0.756</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.188</v>
+        <v>0.184</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.433</v>
+        <v>0.429</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.75</v>
+        <v>0.756</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.188</v>
+        <v>0.184</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.433</v>
+        <v>0.429</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.16</v>
+        <v>0.157</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.4</v>
+        <v>0.396</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.767</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="10">
@@ -1424,124 +1424,124 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.75</v>
+        <v>0.756</v>
       </c>
       <c r="C10" t="n">
-        <v>0.188</v>
+        <v>0.184</v>
       </c>
       <c r="D10" t="n">
-        <v>0.433</v>
+        <v>0.429</v>
       </c>
       <c r="E10" t="n">
-        <v>0.65</v>
+        <v>0.659</v>
       </c>
       <c r="F10" t="n">
-        <v>0.227</v>
+        <v>0.225</v>
       </c>
       <c r="G10" t="n">
-        <v>0.477</v>
+        <v>0.474</v>
       </c>
       <c r="H10" t="n">
-        <v>0.75</v>
+        <v>0.756</v>
       </c>
       <c r="I10" t="n">
-        <v>0.188</v>
+        <v>0.184</v>
       </c>
       <c r="J10" t="n">
-        <v>0.433</v>
+        <v>0.429</v>
       </c>
       <c r="K10" t="n">
-        <v>0.625</v>
+        <v>0.634</v>
       </c>
       <c r="L10" t="n">
-        <v>0.234</v>
+        <v>0.232</v>
       </c>
       <c r="M10" t="n">
-        <v>0.484</v>
+        <v>0.482</v>
       </c>
       <c r="N10" t="n">
-        <v>0.775</v>
+        <v>0.78</v>
       </c>
       <c r="O10" t="n">
-        <v>0.174</v>
+        <v>0.171</v>
       </c>
       <c r="P10" t="n">
-        <v>0.418</v>
+        <v>0.414</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.55</v>
+        <v>0.537</v>
       </c>
       <c r="R10" t="n">
-        <v>0.248</v>
+        <v>0.249</v>
       </c>
       <c r="S10" t="n">
-        <v>0.497</v>
+        <v>0.499</v>
       </c>
       <c r="T10" t="n">
-        <v>0.525</v>
+        <v>0.512</v>
       </c>
       <c r="U10" t="n">
-        <v>0.249</v>
+        <v>0.25</v>
       </c>
       <c r="V10" t="n">
-        <v>0.499</v>
+        <v>0.5</v>
       </c>
       <c r="W10" t="n">
-        <v>0.725</v>
+        <v>0.707</v>
       </c>
       <c r="X10" t="n">
-        <v>0.199</v>
+        <v>0.207</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.447</v>
+        <v>0.455</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.16</v>
+        <v>0.157</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.4</v>
+        <v>0.396</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.24</v>
+        <v>0.238</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.49</v>
+        <v>0.488</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.6</v>
+        <v>0.951</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.218</v>
+        <v>0.215</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.75</v>
+        <v>0.756</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.188</v>
+        <v>0.184</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.433</v>
+        <v>0.429</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.9</v>
+        <v>0.902</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.09</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.3</v>
+        <v>0.297</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.867</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="11">
@@ -1551,124 +1551,124 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="C11" t="n">
-        <v>0.16</v>
+        <v>0.157</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4</v>
+        <v>0.396</v>
       </c>
       <c r="E11" t="n">
-        <v>0.725</v>
+        <v>0.732</v>
       </c>
       <c r="F11" t="n">
-        <v>0.199</v>
+        <v>0.196</v>
       </c>
       <c r="G11" t="n">
-        <v>0.447</v>
+        <v>0.443</v>
       </c>
       <c r="H11" t="n">
-        <v>0.825</v>
+        <v>0.829</v>
       </c>
       <c r="I11" t="n">
-        <v>0.144</v>
+        <v>0.142</v>
       </c>
       <c r="J11" t="n">
-        <v>0.38</v>
+        <v>0.376</v>
       </c>
       <c r="K11" t="n">
-        <v>0.625</v>
+        <v>0.634</v>
       </c>
       <c r="L11" t="n">
-        <v>0.234</v>
+        <v>0.232</v>
       </c>
       <c r="M11" t="n">
-        <v>0.484</v>
+        <v>0.482</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="O11" t="n">
-        <v>0.16</v>
+        <v>0.157</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4</v>
+        <v>0.396</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.55</v>
+        <v>0.537</v>
       </c>
       <c r="R11" t="n">
-        <v>0.248</v>
+        <v>0.249</v>
       </c>
       <c r="S11" t="n">
-        <v>0.497</v>
+        <v>0.499</v>
       </c>
       <c r="T11" t="n">
-        <v>0.525</v>
+        <v>0.512</v>
       </c>
       <c r="U11" t="n">
-        <v>0.249</v>
+        <v>0.25</v>
       </c>
       <c r="V11" t="n">
-        <v>0.499</v>
+        <v>0.5</v>
       </c>
       <c r="W11" t="n">
-        <v>0.725</v>
+        <v>0.707</v>
       </c>
       <c r="X11" t="n">
-        <v>0.199</v>
+        <v>0.207</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.447</v>
+        <v>0.455</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.16</v>
+        <v>0.157</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.4</v>
+        <v>0.396</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.65</v>
+        <v>0.659</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.227</v>
+        <v>0.225</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.477</v>
+        <v>0.474</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.6</v>
+        <v>0.951</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.218</v>
+        <v>0.215</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.75</v>
+        <v>0.756</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.188</v>
+        <v>0.184</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.433</v>
+        <v>0.429</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.9</v>
+        <v>0.902</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.09</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.3</v>
+        <v>0.297</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.867</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="12">
@@ -1678,49 +1678,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.312</v>
+        <v>1.303</v>
       </c>
       <c r="C12" t="n">
-        <v>0.652</v>
+        <v>0.635</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.797</v>
       </c>
       <c r="E12" t="n">
-        <v>1.655</v>
+        <v>1.633</v>
       </c>
       <c r="F12" t="n">
-        <v>1.054</v>
+        <v>1.032</v>
       </c>
       <c r="G12" t="n">
-        <v>1.026</v>
+        <v>1.016</v>
       </c>
       <c r="H12" t="n">
-        <v>1.576</v>
+        <v>1.559</v>
       </c>
       <c r="I12" t="n">
-        <v>1.275</v>
+        <v>1.247</v>
       </c>
       <c r="J12" t="n">
-        <v>1.129</v>
+        <v>1.116</v>
       </c>
       <c r="K12" t="n">
-        <v>1.44</v>
+        <v>1.423</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.552</v>
       </c>
       <c r="M12" t="n">
-        <v>0.753</v>
+        <v>0.743</v>
       </c>
       <c r="N12" t="n">
-        <v>1.312</v>
+        <v>1.303</v>
       </c>
       <c r="O12" t="n">
-        <v>0.465</v>
+        <v>0.454</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.674</v>
       </c>
       <c r="Q12" t="n">
         <v>1.091</v>
@@ -1750,31 +1750,31 @@
         <v>0.581</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.281</v>
+        <v>1.273</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.327</v>
+        <v>0.32</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.572</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.069</v>
+        <v>2.033</v>
       </c>
       <c r="AD12" t="n">
-        <v>4.133</v>
+        <v>4.032</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.033</v>
+        <v>2.008</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.348</v>
+        <v>1.231</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.233</v>
+        <v>0.229</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.483</v>
+        <v>0.478</v>
       </c>
       <c r="AI12" t="n">
         <v>1</v>
@@ -1786,16 +1786,16 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.111</v>
+        <v>1.108</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.099</v>
+        <v>0.096</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.314</v>
+        <v>0.311</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.116</v>
+        <v>1.113</v>
       </c>
     </row>
     <row r="13">
@@ -1805,49 +1805,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.45</v>
+        <v>3.415</v>
       </c>
       <c r="C13" t="n">
-        <v>1.348</v>
+        <v>1.365</v>
       </c>
       <c r="D13" t="n">
-        <v>1.161</v>
+        <v>1.168</v>
       </c>
       <c r="E13" t="n">
-        <v>4.579</v>
+        <v>4.564</v>
       </c>
       <c r="F13" t="n">
-        <v>0.717</v>
+        <v>0.707</v>
       </c>
       <c r="G13" t="n">
-        <v>0.847</v>
+        <v>0.841</v>
       </c>
       <c r="H13" t="n">
-        <v>4.513</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>0.968</v>
+        <v>0.95</v>
       </c>
       <c r="J13" t="n">
-        <v>0.984</v>
+        <v>0.975</v>
       </c>
       <c r="K13" t="n">
-        <v>2.343</v>
+        <v>2.333</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="M13" t="n">
-        <v>0.754</v>
+        <v>0.745</v>
       </c>
       <c r="N13" t="n">
-        <v>3.325</v>
+        <v>3.317</v>
       </c>
       <c r="O13" t="n">
-        <v>0.819</v>
+        <v>0.802</v>
       </c>
       <c r="P13" t="n">
-        <v>0.905</v>
+        <v>0.895</v>
       </c>
       <c r="Q13" t="n">
         <v>1.233</v>
@@ -1877,52 +1877,52 @@
         <v>2.71</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.816</v>
+        <v>2.795</v>
       </c>
       <c r="AA13" t="n">
-        <v>4.15</v>
+        <v>4.06</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.037</v>
+        <v>2.015</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.154</v>
+        <v>6.175</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.899</v>
+        <v>2.844</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.703</v>
+        <v>1.687</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.8</v>
+        <v>1.707</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.849</v>
+        <v>0.841</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.922</v>
+        <v>0.917</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.325</v>
+        <v>1.317</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.369</v>
+        <v>0.363</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.608</v>
+        <v>0.602</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.75</v>
+        <v>1.732</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.838</v>
+        <v>0.83</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.915</v>
+        <v>0.911</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.6</v>
+        <v>1.585</v>
       </c>
     </row>
   </sheetData>
